--- a/biology/Botanique/Reinette_de_Landsberg/Reinette_de_Landsberg.xlsx
+++ b/biology/Botanique/Reinette_de_Landsberg/Reinette_de_Landsberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinette de Landsberg est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Landsberger Reinette, Landsberger Renette, Landsberger, Jaune de Salomon (en Cévennes)...
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage: à couteau et à cuire
 Calibre: moyen à gros
@@ -577,9 +593,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Origine: vers 1850, Burchardt, Landsberg[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Origine: vers 1850, Burchardt, Landsberg.
 Descendants:
 </t>
         </is>
@@ -609,11 +627,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde (à bon pollen)
 Groupe de floraison: B
-Variétés compatibles: Reinette Baumann, Cox's Orange Pippin, James Grieve, Oldenburg[2]...
+Variétés compatibles: Reinette Baumann, Cox's Orange Pippin, James Grieve, Oldenburg...
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tavelure: peu susceptible
 Mildiou: peu susceptible
@@ -675,7 +697,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cueillette: à partir du début octobre
 Maturité de consommation: fin octobre
